--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/GMB_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/GMB_AdminBoundaries_TabularData.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin0" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin1" sheetId="2" r:id="rId2"/>
-    <sheet name="Admin2" sheetId="3" r:id="rId3"/>
-    <sheet name="Admin3" sheetId="4" r:id="rId4"/>
+    <sheet name="ADM0" sheetId="1" r:id="rId1"/>
+    <sheet name="ADM1" sheetId="2" r:id="rId2"/>
+    <sheet name="ADM2" sheetId="3" r:id="rId3"/>
+    <sheet name="ADM3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,31 +19,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="373">
   <si>
-    <t>admin0Name_en</t>
-  </si>
-  <si>
-    <t>admin0Pcode</t>
-  </si>
-  <si>
-    <t>admin0RefName</t>
-  </si>
-  <si>
-    <t>admin0AltName1_en</t>
-  </si>
-  <si>
-    <t>admin0AltName2_en</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>validOn</t>
-  </si>
-  <si>
-    <t>validTo</t>
-  </si>
-  <si>
-    <t>Area_SqKm</t>
+    <t>ADM0_EN</t>
+  </si>
+  <si>
+    <t>ADM0_PCODE</t>
+  </si>
+  <si>
+    <t>ADM0_REF</t>
+  </si>
+  <si>
+    <t>ADM0ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM0ALT2_EN</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VALIDON</t>
+  </si>
+  <si>
+    <t>VALIDTO</t>
+  </si>
+  <si>
+    <t>AREA_SQKM</t>
   </si>
   <si>
     <t>Gambia (the)</t>
@@ -55,22 +55,22 @@
     <t>Gambia</t>
   </si>
   <si>
-    <t>admin1Name_en</t>
-  </si>
-  <si>
-    <t>LGA_en</t>
-  </si>
-  <si>
-    <t>admin1Pcode</t>
-  </si>
-  <si>
-    <t>admin1RefName</t>
-  </si>
-  <si>
-    <t>admin1AltName1_en</t>
-  </si>
-  <si>
-    <t>admin1AltName2_en</t>
+    <t>ADM1_EN</t>
+  </si>
+  <si>
+    <t>LGA_EN</t>
+  </si>
+  <si>
+    <t>ADM1_PCODE</t>
+  </si>
+  <si>
+    <t>ADM1_REF</t>
+  </si>
+  <si>
+    <t>ADM1ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM1ALT2_EN</t>
   </si>
   <si>
     <t>Banjul City Council</t>
@@ -145,19 +145,19 @@
     <t>GM03</t>
   </si>
   <si>
-    <t>admin2Name_en</t>
-  </si>
-  <si>
-    <t>admin2Pcode</t>
-  </si>
-  <si>
-    <t>admin2RefName</t>
-  </si>
-  <si>
-    <t>admin2AltName1_en</t>
-  </si>
-  <si>
-    <t>admin2AltName2_en</t>
+    <t>ADM2_EN</t>
+  </si>
+  <si>
+    <t>ADM2_PCODE</t>
+  </si>
+  <si>
+    <t>ADM2_REF</t>
+  </si>
+  <si>
+    <t>ADM2ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM2ALT2_EN</t>
   </si>
   <si>
     <t>Banjul Central</t>
@@ -448,19 +448,19 @@
     <t>GM0806</t>
   </si>
   <si>
-    <t>admin3Name_en</t>
-  </si>
-  <si>
-    <t>admin3Pcode</t>
-  </si>
-  <si>
-    <t>admin3RefName</t>
-  </si>
-  <si>
-    <t>admin3AltName1_en</t>
-  </si>
-  <si>
-    <t>admin3AltName2_en</t>
+    <t>ADM3_EN</t>
+  </si>
+  <si>
+    <t>ADM3_PCODE</t>
+  </si>
+  <si>
+    <t>ADM3_REF</t>
+  </si>
+  <si>
+    <t>ADM3ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM3ALT2_EN</t>
   </si>
   <si>
     <t>New Town East</t>
@@ -1505,15 +1505,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1579,17 +1570,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -1852,19 +1832,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -3493,21 +3460,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
